--- a/yield_prediction/results/graph_descriptors/WLlinear_6/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLlinear_6/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.248</v>
+        <v>16.247</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.743</v>
+        <v>0.698</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.272</v>
+        <v>15.466</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.963</v>
+        <v>0.969</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.069</v>
+        <v>4.668</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6.652048440017026</v>
+        <v>7.462225257849639</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>9.94261409941759</v>
+        <v>10.49391595207478</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>16.04901080281539</v>
+        <v>16.69208280741825</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-1.919870130084874</v>
+        <v>-0.9489545951303526</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>13.11092452423516</v>
+        <v>13.40349535442738</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>15.33370814793018</v>
+        <v>15.58567770006753</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2.080566455091308</v>
+        <v>2.918625755519873</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22.79913080925191</v>
+        <v>22.55470939055859</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>25.5336525629215</v>
+        <v>25.17225475538784</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>21.89710265536726</v>
+        <v>20.34355449968116</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>26.11967694910905</v>
+        <v>24.60340771507215</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>30.04983709233505</v>
+        <v>28.51356039136407</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5.797817879532872</v>
+        <v>6.828293735191245</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>15.56836758400819</v>
+        <v>15.12109776835242</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>17.4976680209931</v>
+        <v>17.92841661132553</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10.7007185848895</v>
+        <v>11.04994530674001</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26.54214031139008</v>
+        <v>26.75899658529171</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>38.83797827125117</v>
+        <v>38.5878823197109</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2.777875291906533</v>
+        <v>3.655120635080664</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>15.9713601244833</v>
+        <v>15.42386030748486</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.84707076599067</v>
+        <v>28.35998261669618</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.693504893760732</v>
+        <v>3.634893687308022</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>27.46986484108508</v>
+        <v>25.35579350342942</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>54.22825195432623</v>
+        <v>51.26202564507448</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>30.76290447519811</v>
+        <v>29.22806626925435</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>51.72899979819888</v>
+        <v>50.27025485387439</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>67.75600002236013</v>
+        <v>67.55971604117151</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6.711221267577926</v>
+        <v>6.371764140034902</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>40.85210158419405</v>
+        <v>38.68028299103833</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>55.66953008552042</v>
+        <v>54.71313988613183</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>14.00779612693178</v>
+        <v>13.64991622846615</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>33.82526593988674</v>
+        <v>33.24136515204356</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>43.53942598205624</v>
+        <v>42.77836143786091</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1.952552550831982</v>
+        <v>1.610224682942242</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>26.20627696841307</v>
+        <v>23.73393828256786</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>36.155428890189</v>
+        <v>33.80071231105129</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4.252019414178431</v>
+        <v>3.409027271295223</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>42.15144380497329</v>
+        <v>38.32043601820676</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>58.30334707899623</v>
+        <v>53.31269196935308</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>55.14574456997234</v>
+        <v>50.76186393659897</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>72.93708614454067</v>
+        <v>69.33157314010948</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>80.48579360039597</v>
+        <v>76.71490731508706</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>14.54047972603347</v>
+        <v>13.48748045270688</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>58.38820777110188</v>
+        <v>54.1902953548128</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>66.59147684508325</v>
+        <v>60.97238135214926</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6.01578761501289</v>
+        <v>6.767808397929333</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>31.4017127240238</v>
+        <v>31.16687411845909</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>40.15362654380858</v>
+        <v>39.22965009367125</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4.641464301383923</v>
+        <v>5.297577316684016</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>38.60424870040771</v>
+        <v>37.42615460450786</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>42.72982411962249</v>
+        <v>41.32702406213425</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6.59695783869585</v>
+        <v>6.818165074692278</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>61.6514834737707</v>
+        <v>60.45001700143209</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>68.84170608253822</v>
+        <v>67.59575765495559</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>59.67376731043589</v>
+        <v>56.34363551871841</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>66.59127580904888</v>
+        <v>64.30120381273404</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>64.24489803746812</v>
+        <v>60.69646363596532</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6.411269622469838</v>
+        <v>6.934600211332302</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>46.51824818768392</v>
+        <v>45.482037127019</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>52.12744782991506</v>
+        <v>51.7196971372776</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>8.401117145533831</v>
+        <v>8.542810947939582</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>34.03087165399981</v>
+        <v>33.56099491234624</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>40.43494842578566</v>
+        <v>39.91959733583285</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1.729045121207573</v>
+        <v>3.311896594315385</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>23.64171527981572</v>
+        <v>22.75795010804314</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>36.32076842325356</v>
+        <v>34.99687620186845</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1.9266047452019</v>
+        <v>3.014119340034991</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>42.52768151333795</v>
+        <v>40.88198021126892</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>59.65576870661397</v>
+        <v>57.14197395289341</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>48.1793653030151</v>
+        <v>45.54210268386294</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>62.87461040467944</v>
+        <v>60.62676538929803</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>71.1040089288929</v>
+        <v>68.49211425196108</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6.038678588494982</v>
+        <v>5.936462173911931</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>54.47232059974765</v>
+        <v>51.89691566272008</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>61.38560059524324</v>
+        <v>59.03403422780175</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>9.806028730724559</v>
+        <v>9.863877374865179</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>37.25878581938429</v>
+        <v>37.07627305257085</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>47.95010628985941</v>
+        <v>47.21914737812573</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1.64408368873859</v>
+        <v>3.043463586238918</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>32.75515787374918</v>
+        <v>31.02160807120934</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>42.2745150693581</v>
+        <v>40.85132320330572</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>4.237396262364623</v>
+        <v>4.631607543725291</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>56.73144346713474</v>
+        <v>54.15308789279412</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>78.61259591921801</v>
+        <v>76.35938856320773</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>66.22011043314512</v>
+        <v>61.85422394511718</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>84.17101969695426</v>
+        <v>81.28154069021863</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>89.12624055100099</v>
+        <v>84.93670389782154</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6.106307148969094</v>
+        <v>6.171289389933644</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>67.66352900688312</v>
+        <v>64.15020697087415</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>74.82475595868209</v>
+        <v>71.26133787176316</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>14.28123310994105</v>
+        <v>14.46997887480399</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.96764468854935</v>
+        <v>28.50120646158943</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>36.34625937524801</v>
+        <v>34.35028171592844</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>2.15239840992793</v>
+        <v>2.209009249076704</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>32.93199193842927</v>
+        <v>31.76257691890486</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>35.06976810692861</v>
+        <v>34.03281993195409</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>5.820253121831684</v>
+        <v>6.123264693394585</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>58.13322792404487</v>
+        <v>58.13881370195235</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>57.97637356460912</v>
+        <v>56.88803622615958</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>49.82328464740895</v>
+        <v>46.39201064841761</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>58.17745865930972</v>
+        <v>55.43739284516431</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>55.53983447864989</v>
+        <v>52.80131240364635</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>11.82272755810275</v>
+        <v>12.50294413860998</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>37.94157692591347</v>
+        <v>36.39865052900129</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>41.35804082085441</v>
+        <v>40.14544259681066</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>18.3088695091997</v>
+        <v>18.33307165088783</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>41.45119049989152</v>
+        <v>39.38885372449455</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>44.24773943640961</v>
+        <v>42.3920551587771</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>3.835701175768584</v>
+        <v>4.129958268066993</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>31.94089992727882</v>
+        <v>30.49006988564558</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>38.551623790142</v>
+        <v>37.05076493605578</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>4.949256666984571</v>
+        <v>5.191470336714563</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>54.59965094193403</v>
+        <v>52.43227431115754</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>63.82384501519898</v>
+        <v>61.09963933564335</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>55.98713138849696</v>
+        <v>53.41290480315044</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>67.44023565395239</v>
+        <v>65.2853916157909</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>70.97894145307501</v>
+        <v>68.2175872306357</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>18.37150889175547</v>
+        <v>17.97472064389559</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>55.8917080835848</v>
+        <v>53.02860179034072</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>60.32113114842114</v>
+        <v>57.88978939727636</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>17.93118143629641</v>
+        <v>18.17971831814392</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>42.89492181631606</v>
+        <v>41.59249763090267</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>48.45001476044722</v>
+        <v>47.52758649813684</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>2.157855880576793</v>
+        <v>2.905642800425152</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>38.24698620409518</v>
+        <v>35.82737467208943</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>41.23269192463445</v>
+        <v>40.12437371350161</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>3.676436426073</v>
+        <v>4.469604188458863</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>65.24229418729638</v>
+        <v>62.03346732400063</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>75.16383706390582</v>
+        <v>74.22339132413023</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>72.746560683068</v>
+        <v>68.3951305817389</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>81.02925385274331</v>
+        <v>77.90888163267681</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>88.1790362533674</v>
+        <v>84.31399526053133</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>15.90603590131678</v>
+        <v>15.89450072036146</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>69.8606084469092</v>
+        <v>65.36078320949559</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>73.58345408118592</v>
+        <v>69.80274692653424</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>8.982696656580128</v>
+        <v>9.348002674642089</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>12.97244236672217</v>
+        <v>13.23680105844538</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>18.31455193744922</v>
+        <v>18.45689607197107</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-1.467946480003853</v>
+        <v>-0.2553609145908844</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>12.83084372974443</v>
+        <v>13.11182093281163</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>12.95289483610738</v>
+        <v>13.64849985259547</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>5.0857327893311</v>
+        <v>5.712743064070164</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>26.03503242503259</v>
+        <v>24.95810370753966</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>26.84194163091443</v>
+        <v>26.28628381262272</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>22.06186398062777</v>
+        <v>20.85776844547598</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>26.26051090117726</v>
+        <v>23.92056748299487</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>32.24460234409622</v>
+        <v>30.47607366363431</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>48.76056902478619</v>
+        <v>49.26554227822369</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>60.71283337868899</v>
+        <v>60.61416864174515</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>58.64969598848661</v>
+        <v>59.23988432119263</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>9.206647118990169</v>
+        <v>9.46475694900904</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>24.66909244970579</v>
+        <v>24.92051086371341</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>38.49625762390359</v>
+        <v>38.40186191078077</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>2.375804067823189</v>
+        <v>2.996836917776108</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>10.82749812309064</v>
+        <v>10.17748386448439</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28.22940034399363</v>
+        <v>26.39694040011949</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>28.12911386401847</v>
+        <v>26.32039497207266</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>51.88603263406851</v>
+        <v>49.165913849338</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.03618386585188</v>
+        <v>27.61944849712229</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>43.98195784282679</v>
+        <v>42.69319433667928</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>58.69007763124824</v>
+        <v>60.70517318424658</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>12.06812402367249</v>
+        <v>9.546821309640066</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>41.54595884770104</v>
+        <v>38.43964853774087</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>51.03547255081781</v>
+        <v>47.28499329670896</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>19.90668441719704</v>
+        <v>19.95213323665237</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>31.69059749522124</v>
+        <v>31.46701623360647</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>42.90367729863078</v>
+        <v>41.69761325424616</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>2.896347734261624</v>
+        <v>3.434745296200202</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>16.83436275803361</v>
+        <v>15.51496973922884</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>28.74859584567195</v>
+        <v>27.05311004488787</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>8.030101232994873</v>
+        <v>7.747075414417974</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>38.9420192688505</v>
+        <v>37.15501122306863</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>58.84588960231607</v>
+        <v>57.59497103174134</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>41.9141748945365</v>
+        <v>37.85551314866097</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>58.03356935310944</v>
+        <v>55.30337985178389</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>70.73932330256932</v>
+        <v>69.47252495339511</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>24.50941879191211</v>
+        <v>22.7183387837394</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>56.75638929948312</v>
+        <v>53.39787495574353</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>66.60310348304915</v>
+        <v>62.34637672437951</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>9.238317581341946</v>
+        <v>8.786646936098528</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>25.39952749177414</v>
+        <v>23.40764088060615</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>31.73687195398175</v>
+        <v>30.35784240228622</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>2.006508794252539</v>
+        <v>2.098432295498075</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>32.07500752286374</v>
+        <v>30.29721393082032</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>36.16852836834025</v>
+        <v>34.9612925898042</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>8.488253304873545</v>
+        <v>8.605373584553274</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>61.4286886499567</v>
+        <v>59.99908023006707</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>60.65593369689749</v>
+        <v>59.06150410463798</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>48.57246024499236</v>
+        <v>44.23528443616747</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>56.55654215283306</v>
+        <v>55.55838962492243</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>57.38910616115933</v>
+        <v>56.13598234659753</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>13.24982915449583</v>
+        <v>13.13402019939024</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>26.38018990091345</v>
+        <v>22.36102504105288</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>27.12376486616995</v>
+        <v>20.95152473790193</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>20.47578570189345</v>
+        <v>20.6315059919597</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>42.27545363190469</v>
+        <v>40.3027000230593</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>44.22901615175586</v>
+        <v>43.83535505573094</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>4.813563201198484</v>
+        <v>4.931839100572962</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>32.7216771999674</v>
+        <v>31.25157248310688</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>40.97510236995002</v>
+        <v>39.2410407482088</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>58.34627803146095</v>
+        <v>56.13958481211977</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>65.53701248412702</v>
+        <v>62.76536326567788</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>60.06245468296935</v>
+        <v>58.48769912213591</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>72.31764074624505</v>
+        <v>69.70458188903758</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>76.57832109595964</v>
+        <v>73.8822331093274</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>31.52665634524395</v>
+        <v>30.66091792167595</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>63.76674922939233</v>
+        <v>60.19938386652333</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>65.83103661723105</v>
+        <v>63.73412910855609</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>22.10206466821501</v>
+        <v>22.47632349929088</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>42.26279603386507</v>
+        <v>41.52924071807896</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>46.87767605528343</v>
+        <v>46.52743898337154</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>1.323831834393999</v>
+        <v>2.539745122192524</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>31.04856459797912</v>
+        <v>29.83083502911552</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>37.57929274514214</v>
+        <v>37.10028854090717</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>7.383511192937885</v>
+        <v>8.298197930353641</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>60.27494580547798</v>
+        <v>57.87434030118315</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>71.072404465351</v>
+        <v>69.42259385858894</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>70.741544566345</v>
+        <v>67.14378584864953</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>80.00662008188073</v>
+        <v>76.83635758166263</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>83.10220265025728</v>
+        <v>79.97785192721452</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>31.51786899958818</v>
+        <v>30.44128742705121</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>68.87177617557262</v>
+        <v>64.23926113921435</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>76.39329089498547</v>
+        <v>73.03226747011567</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>3.266338368603297</v>
+        <v>6.122769605009051</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>18.90864169843548</v>
+        <v>18.30188268797237</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>30.09343714326761</v>
+        <v>30.39950049875002</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>2.169588330081989</v>
+        <v>1.677741643053675</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>37.26052711483618</v>
+        <v>35.70902538088489</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>37.50387144192996</v>
+        <v>36.89610913834755</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>6.373382856626812</v>
+        <v>6.151592634395183</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>67.43154275454506</v>
+        <v>66.04244024820881</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>65.12857905777201</v>
+        <v>64.1926322972124</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>50.02378121886259</v>
+        <v>45.94050570540875</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>66.78281071327692</v>
+        <v>63.42523855305149</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>70.09659409936734</v>
+        <v>67.62858526136871</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>6.160984743961411</v>
+        <v>6.448826718305664</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>16.40521593014479</v>
+        <v>12.02243146924516</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>14.04583777229611</v>
+        <v>10.71086575362787</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>14.82394062380075</v>
+        <v>16.31284059313298</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>42.26944930526856</v>
+        <v>41.54559598303969</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>45.2582876794151</v>
+        <v>45.03883015006309</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>4.797418188868892</v>
+        <v>5.166333498989438</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>37.5486966650723</v>
+        <v>36.58764288613171</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>43.13301285514645</v>
+        <v>41.97093983407066</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>4.867764505750859</v>
+        <v>5.362261354233912</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>64.98857715399365</v>
+        <v>63.03680053674211</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>68.04120937493612</v>
+        <v>65.98876484429695</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>50.61994333002269</v>
+        <v>48.48006087740382</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>68.6338039781206</v>
+        <v>65.92542416935879</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>76.9370558856593</v>
+        <v>73.95267984098224</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>17.70265180257469</v>
+        <v>17.43082663537384</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>66.80680851933656</v>
+        <v>64.12705915356801</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>69.23393919993194</v>
+        <v>68.50036885892779</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>19.32076230817939</v>
+        <v>19.49176070923853</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>3.466123577643586</v>
+        <v>3.865855478802324</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>36.82912695524583</v>
+        <v>35.32984733897663</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>40.29904718929667</v>
+        <v>39.09199970417818</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>7.650429526151427</v>
+        <v>7.81359125614501</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>68.08352369684806</v>
+        <v>65.06311606936245</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>75.26472976530474</v>
+        <v>73.22047703755537</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>68.74547379163604</v>
+        <v>65.06396109167073</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>84.66943434372337</v>
+        <v>81.17274810414526</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>89.1889597824769</v>
+        <v>85.93364767773953</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>15.70240595395563</v>
+        <v>15.13872802671918</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>72.02544959560402</v>
+        <v>68.36956781877943</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>74.60838934027019</v>
+        <v>72.13751501099134</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>3.118216693052968</v>
+        <v>3.755553199926727</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>4.523894386973744</v>
+        <v>5.772292803897901</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>10.14840565823005</v>
+        <v>10.54755757058338</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-2.083755338239559</v>
+        <v>-1.444329717307557</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>10.05231802311613</v>
+        <v>11.22553033579678</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>10.87589109790174</v>
+        <v>11.87828736733191</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>1.123633610471732</v>
+        <v>1.641546332714746</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>18.92306811638225</v>
+        <v>18.91066702093483</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>21.31989995580426</v>
+        <v>21.27563057054964</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>22.14480319140277</v>
+        <v>21.42338771719298</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>27.57414844669586</v>
+        <v>26.53942440614982</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>28.24680730167001</v>
+        <v>26.84656697951288</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>2.442125181426029</v>
+        <v>3.601670982479671</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>8.145052724668439</v>
+        <v>8.23356328721448</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>10.25810256163622</v>
+        <v>10.89764555590379</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>9.110811436810192</v>
+        <v>9.445695839585564</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>24.94835108103992</v>
+        <v>25.04903818587362</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>32.76197120288666</v>
+        <v>31.98416294231058</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>4.352096016427925</v>
+        <v>5.199780927697226</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>19.48811693942277</v>
+        <v>19.56954820018819</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.38973223666366</v>
+        <v>28.24130865264506</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>6.419351733472016</v>
+        <v>6.578761138057228</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>33.0742406068985</v>
+        <v>31.76559716066022</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>49.42191918384859</v>
+        <v>47.13505716287276</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>34.5664815154134</v>
+        <v>33.97445954184513</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>48.70284723226098</v>
+        <v>47.1876718463418</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>55.50838197046495</v>
+        <v>53.42096906821146</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>8.716480346984131</v>
+        <v>8.686393444344375</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>39.23617652131215</v>
+        <v>37.22991579131465</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>47.76214132008421</v>
+        <v>45.56519614244189</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>8.990274644689009</v>
+        <v>9.112790334293685</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>28.5587981761487</v>
+        <v>27.86229861645805</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>38.71652692759831</v>
+        <v>37.50920064487732</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>1.897637544760741</v>
+        <v>1.989205134402447</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>27.47385004231954</v>
+        <v>25.9189598252805</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>34.69753124237834</v>
+        <v>32.29112181008289</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>4.894045445241076</v>
+        <v>4.567323460737189</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>46.7903215135387</v>
+        <v>44.28163817506466</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>59.86093661999551</v>
+        <v>56.80781919402718</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>57.75451826600985</v>
+        <v>54.77706837549448</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>70.3338935476001</v>
+        <v>67.31733563185514</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>75.12264322360642</v>
+        <v>72.04504918131913</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>10.10795960420809</v>
+        <v>9.790806151347681</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>57.4228891021213</v>
+        <v>53.86879970348404</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>68.54347154865188</v>
+        <v>64.76577297560368</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>1.928216108945573</v>
+        <v>2.458361678633107</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>6.440282191475831</v>
+        <v>6.589267199993536</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>10.33301296450293</v>
+        <v>10.27213686787026</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-1.769630742652325</v>
+        <v>-0.8724732500792136</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>8.144311720970677</v>
+        <v>8.630323937831371</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>10.25133990003595</v>
+        <v>10.88925957424973</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>0.2112436567007343</v>
+        <v>2.681337829286214</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>16.47502845307625</v>
+        <v>16.71959304277718</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>14.9032126632035</v>
+        <v>14.74411876686478</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>13.61139518930337</v>
+        <v>12.93200672551821</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>15.75586673777234</v>
+        <v>14.94558574987662</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>20.06844128182059</v>
+        <v>16.72964244606358</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>4.683402140892152</v>
+        <v>6.14477803011598</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>9.531934495051285</v>
+        <v>10.2065912324009</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>10.88488023374056</v>
+        <v>12.31040933820344</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>1.123201078934109</v>
+        <v>1.950143744305283</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>7.16061400682991</v>
+        <v>7.968970923688165</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>17.20905933301903</v>
+        <v>17.83929184410371</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-0.6586187444763851</v>
+        <v>0.3657041182129426</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>1.195024701147862</v>
+        <v>2.214001147248453</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>11.0571610231526</v>
+        <v>11.07332348742912</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>1.367076550513001</v>
+        <v>2.133573404373617</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>9.586333424913768</v>
+        <v>9.441564715952492</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>27.99858567847072</v>
+        <v>26.5334409471953</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>13.19816553571859</v>
+        <v>13.58777179849629</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>24.88294073630087</v>
+        <v>24.50071543862175</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>40.2791938653487</v>
+        <v>39.21487873902701</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>1.27360195257107</v>
+        <v>2.624883453632989</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>12.00790409637312</v>
+        <v>11.87421372669938</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>13.17295158269982</v>
+        <v>12.68970539507546</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>4.086871499594899</v>
+        <v>4.009150131669458</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>9.518820733341581</v>
+        <v>10.30878662099402</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>25.50674853613695</v>
+        <v>24.88792868801197</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-3.40176241556302</v>
+        <v>-2.653229830088616</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>4.84611400220701</v>
+        <v>4.250981088349622</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>21.93274525804532</v>
+        <v>20.75142698597288</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-0.7831481879046294</v>
+        <v>-0.157091833899532</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>13.28285561602923</v>
+        <v>11.96448789042483</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>43.88583779539275</v>
+        <v>44.87819823188525</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>20.87261616042196</v>
+        <v>17.41121787045986</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>43.64253303552053</v>
+        <v>44.30050120235232</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>65.07894157423854</v>
+        <v>63.42542350183085</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>-1.387308343000416</v>
+        <v>-0.9309043487540158</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>16.44939159919659</v>
+        <v>13.37296439176942</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>28.69010367026701</v>
+        <v>26.05999215846392</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>10.42268622529673</v>
+        <v>11.66212151815506</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>22.0287536225878</v>
+        <v>20.97306418994082</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>36.68044182275003</v>
+        <v>35.23202941068489</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>4.616726077878837</v>
+        <v>4.745329574188158</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>44.22703172673559</v>
+        <v>42.97692384161783</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>44.98072586961577</v>
+        <v>43.63264413558898</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>7.000480812875502</v>
+        <v>6.795259714992895</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>64.86532550074259</v>
+        <v>63.1364082081529</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>68.38299889193611</v>
+        <v>65.32200919712456</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>58.60706594916073</v>
+        <v>52.12703419708367</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>65.07522775361103</v>
+        <v>58.24998906493454</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>65.32337045005687</v>
+        <v>60.5333601832774</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>15.81317453365918</v>
+        <v>17.94216369118082</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>37.67032836168501</v>
+        <v>36.5576869158571</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>62.6210987216738</v>
+        <v>65.05010124949294</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>9.72152977464043</v>
+        <v>9.510293619338945</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>32.25516026527238</v>
+        <v>31.00575165546601</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>36.12048466248096</v>
+        <v>35.39378404172688</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>1.036481393591657</v>
+        <v>1.842751129761666</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>28.94709589639015</v>
+        <v>27.71540554912642</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>33.90877631201473</v>
+        <v>32.95162404317647</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>2.417240299988464</v>
+        <v>2.404556508398695</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>49.07332631237259</v>
+        <v>46.25574587217182</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>56.6257532699122</v>
+        <v>53.56566505421125</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>45.87152835958194</v>
+        <v>41.98070619454874</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>55.21165059315339</v>
+        <v>52.19620422933195</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>60.90842030581333</v>
+        <v>58.57173989315974</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>15.05757358956987</v>
+        <v>14.95793241769098</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>51.56355380060813</v>
+        <v>48.34355986473314</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>57.45427375165594</v>
+        <v>55.59007226977027</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>13.01625405975844</v>
+        <v>13.89780186252749</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>34.80685255804458</v>
+        <v>34.09066714728969</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>43.38685466589448</v>
+        <v>43.26859082539983</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>3.735857625721177</v>
+        <v>3.9749990807377</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>37.29814356202392</v>
+        <v>35.34301692218169</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>41.42847297697226</v>
+        <v>40.19536609023852</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>7.107755444134408</v>
+        <v>7.716722990641866</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>62.31266841451565</v>
+        <v>58.95397810797752</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>74.13954074101343</v>
+        <v>71.77656025471633</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>67.23110878312585</v>
+        <v>61.40743965975778</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>77.30710093280945</v>
+        <v>72.88024567889245</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>81.10605999719172</v>
+        <v>77.57345112296677</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>14.93147467178936</v>
+        <v>15.83638157908444</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>67.18286467960428</v>
+        <v>63.00065093074247</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>76.37125770457104</v>
+        <v>73.32557322158826</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>4.8481544016105</v>
+        <v>5.285096863213766</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>7.607975748364783</v>
+        <v>8.367235590069491</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>13.44744621301427</v>
+        <v>13.63116044705335</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-1.994297853314936</v>
+        <v>-1.608438437954163</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>4.877934213704293</v>
+        <v>6.191056668010152</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>8.438226517616119</v>
+        <v>9.167469397892162</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>1.447080294362287</v>
+        <v>1.971965854424756</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>14.35372147681624</v>
+        <v>15.50179038705473</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>18.49599470431674</v>
+        <v>17.94751961015197</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>15.54532064462605</v>
+        <v>14.58667887302063</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>19.04543237873019</v>
+        <v>17.79509808760733</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>21.71637820725557</v>
+        <v>20.34529905361789</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>4.921201805625817</v>
+        <v>5.474060194117339</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>10.63072728786761</v>
+        <v>10.99309409961435</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>12.69379837050445</v>
+        <v>14.0971014517209</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>6.122019050078269</v>
+        <v>5.745161522748415</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>15.08551382981276</v>
+        <v>14.91438050125928</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>27.63409765674378</v>
+        <v>26.34699937861467</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>0.1796421820286049</v>
+        <v>0.2494957416459194</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>6.267387306238646</v>
+        <v>6.344960763437758</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>22.60507263548922</v>
+        <v>21.48888745967402</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>0.9641556089056671</v>
+        <v>0.8400252394160006</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>10.89782569693595</v>
+        <v>10.56623866145071</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>38.84753549327053</v>
+        <v>36.12734034089964</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>15.74075477568349</v>
+        <v>14.82050513918207</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>27.66896576857344</v>
+        <v>26.58672808917637</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>39.08393025090359</v>
+        <v>37.52522305136004</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>3.818980177657249</v>
+        <v>3.668211999978588</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>20.56445400131807</v>
+        <v>19.33208592014683</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>33.17686281133476</v>
+        <v>30.7999251747131</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>11.17800849830812</v>
+        <v>10.78301978118114</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>21.91592692261876</v>
+        <v>22.07070364890292</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>35.86957090744479</v>
+        <v>34.61754651134829</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>1.482848775646644</v>
+        <v>1.488016928367113</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>14.613287727044</v>
+        <v>13.32499425180651</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>28.11741298191918</v>
+        <v>25.83807718509645</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>6.17084238123935</v>
+        <v>5.823412659278819</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>27.26499606941237</v>
+        <v>25.49198459517271</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>53.28978377227003</v>
+        <v>49.27778873174969</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>32.76995750296151</v>
+        <v>28.64686337689728</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>40.64724005326477</v>
+        <v>38.17925952891449</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>66.95950859538554</v>
+        <v>62.15924322894669</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>15.52984765563657</v>
+        <v>14.49322674812734</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>35.54381922275536</v>
+        <v>32.34431958539115</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>49.35480292790285</v>
+        <v>45.81621774789208</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>-1.644092281443772</v>
+        <v>-0.7692805788827641</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-1.882150715139531</v>
+        <v>-1.457536139987788</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>5.630826753555301</v>
+        <v>6.038715774911957</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-4.432397825460754</v>
+        <v>-3.857937379314144</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>1.898813522190764</v>
+        <v>1.964893828085966</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>3.867267942187347</v>
+        <v>4.000511921722428</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-3.495169203338474</v>
+        <v>1.33602207264121</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>11.66649521552104</v>
+        <v>10.76896102160728</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>12.83872252934141</v>
+        <v>12.02941809570779</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>9.316209504492281</v>
+        <v>4.450556402310671</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>10.4472514690029</v>
+        <v>6.888483062136139</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>16.06029300039593</v>
+        <v>15.18131735508462</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-1.801637281171107</v>
+        <v>-0.5034583607334611</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>1.688405696712692</v>
+        <v>1.40987525316956</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>3.999107951762817</v>
+        <v>5.550574344031912</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>16.41118495263022</v>
+        <v>16.6281299155176</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>34.09677405723539</v>
+        <v>32.63584780274118</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>38.44096678907789</v>
+        <v>37.84578937057123</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>4.99539565308066</v>
+        <v>5.260346690046536</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>25.68867074670499</v>
+        <v>24.79968098306181</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>32.32416539077509</v>
+        <v>31.20815811891413</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>8.93592590961736</v>
+        <v>9.884711592265049</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>49.15068974559046</v>
+        <v>46.64967318302457</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>56.4400422096185</v>
+        <v>54.54275165468376</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>46.34578673326889</v>
+        <v>44.34166570231265</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>55.37508638107261</v>
+        <v>52.51176440787543</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>59.18322787660138</v>
+        <v>56.79481421216227</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>16.39983049985111</v>
+        <v>16.13580129807696</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>48.86357444583761</v>
+        <v>45.76778848943039</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>52.03493530662488</v>
+        <v>50.14463845639216</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>18.94485045819297</v>
+        <v>18.8291615219642</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>38.28253686402589</v>
+        <v>36.60554457887496</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>47.55975749714185</v>
+        <v>47.28105820165354</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>2.553702676794835</v>
+        <v>2.426925190972643</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>31.95940150167954</v>
+        <v>29.60158534838202</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>36.29445864137307</v>
+        <v>34.84664622388287</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>7.504089074694928</v>
+        <v>7.382428543152724</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>59.65963790977084</v>
+        <v>55.45548787788395</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>67.45254499251988</v>
+        <v>64.81189350409947</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>64.01144799051937</v>
+        <v>60.51686389622888</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>77.01586723834606</v>
+        <v>73.44051817309548</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>80.06037873932252</v>
+        <v>76.70093871614633</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>13.88573142842547</v>
+        <v>13.20504484935268</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>63.70957707181453</v>
+        <v>58.93029336885506</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>66.97257663344951</v>
+        <v>63.88739891843262</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>10.50407531737054</v>
+        <v>10.36189000620436</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>12.76448686041208</v>
+        <v>12.74417033627057</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>16.26567058332764</v>
+        <v>16.27100132149914</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>1.405314860467591</v>
+        <v>1.242427204940309</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>12.06383654989525</v>
+        <v>12.57498085761226</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>13.1500165754698</v>
+        <v>13.66466117407556</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>8.815399904501515</v>
+        <v>8.866257958601828</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>23.84289600104464</v>
+        <v>23.60688309804528</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>23.06213515000935</v>
+        <v>22.56116568801565</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>23.29180002862525</v>
+        <v>21.77160191832223</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>26.65294550717317</v>
+        <v>25.24110653344206</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.00534819208239</v>
+        <v>27.18667492362142</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>11.93190475211239</v>
+        <v>12.35736415654307</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>16.78222343044179</v>
+        <v>15.96294212660244</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>18.22637314378306</v>
+        <v>17.71673433785906</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>3.981326546743773</v>
+        <v>3.925791947222098</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>11.28339396867236</v>
+        <v>12.19632149693185</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>17.88050507357545</v>
+        <v>17.99386439471561</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-3.606552919662015</v>
+        <v>-3.063110680046737</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>1.377650932859119</v>
+        <v>2.163069575071209</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>12.97637447608817</v>
+        <v>12.45252323089069</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-2.473259176964099</v>
+        <v>-2.209910979506262</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>8.860760576435482</v>
+        <v>8.546760916403507</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>26.3768377123756</v>
+        <v>24.73497219080302</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>12.47318915600978</v>
+        <v>11.85740298686174</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>19.80177059056916</v>
+        <v>19.41533832149867</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>28.38319507796086</v>
+        <v>28.21548941403443</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>-1.247566149350888</v>
+        <v>-0.9474149656897062</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>11.3064285157057</v>
+        <v>10.71701973721641</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>18.51962871155627</v>
+        <v>17.77092351789243</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>15.58418592871137</v>
+        <v>15.27202174264115</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>27.0640083935232</v>
+        <v>26.81784137601907</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>33.28659887890405</v>
+        <v>32.9372858672303</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>-0.4860581730564277</v>
+        <v>-0.4427800953286862</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>16.60525100308598</v>
+        <v>15.62593024104347</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>22.26359512023766</v>
+        <v>21.35073518522412</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>5.126664811204886</v>
+        <v>4.737193598280054</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>34.78809069434043</v>
+        <v>32.66220983503895</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>47.22380124557107</v>
+        <v>45.37632768832846</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>41.68792555539137</v>
+        <v>38.97588041277333</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>46.49421969642727</v>
+        <v>44.42784554272156</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>58.68282383003174</v>
+        <v>56.35603906763412</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>10.00297849222425</v>
+        <v>9.812722497134974</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>38.25473794626484</v>
+        <v>35.79783040687687</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>42.3395855478599</v>
+        <v>40.25992257609526</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>2.594677959798069</v>
+        <v>2.784283280698045</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>2.25584070828203</v>
+        <v>2.663690967949897</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>3.128758190377489</v>
+        <v>3.866271846345715</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-2.141763480897243</v>
+        <v>-2.081249469462286</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>0.7034172517382942</v>
+        <v>1.708701205526342</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>0.4682963563663911</v>
+        <v>2.031019982350912</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>5.531985524514351</v>
+        <v>5.759435840526006</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>8.550462834067233</v>
+        <v>8.735780006494327</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>5.713354682709291</v>
+        <v>7.197750994049837</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>5.23209609155726</v>
+        <v>4.687920853266348</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>3.905207607212304</v>
+        <v>3.493345722786561</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>6.713142709440199</v>
+        <v>6.114133175845119</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>1.589928242019568</v>
+        <v>2.822094446889103</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>5.061887587528282</v>
+        <v>4.839746549096834</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>2.445856335770948</v>
+        <v>3.749616219996668</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-0.8069821605367125</v>
+        <v>-0.4475268201981315</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>2.916027085830166</v>
+        <v>4.137274922480692</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>3.661934234896748</v>
+        <v>4.711737215223447</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-2.45536370616518</v>
+        <v>-1.909299712390737</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-3.540561790997238</v>
+        <v>-2.858352195985351</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>2.582562820034873</v>
+        <v>2.561388162925589</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-1.801551350246935</v>
+        <v>-1.086898581405489</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>3.10141648040933</v>
+        <v>3.671617972469839</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>6.382866635308211</v>
+        <v>5.808595861585935</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>4.583257858043773</v>
+        <v>4.265542419184037</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>7.527052488878496</v>
+        <v>7.578115798311583</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>6.63198079512042</v>
+        <v>6.319897944343555</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-2.44544485830361</v>
+        <v>-1.630056093271786</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>3.30529384070492</v>
+        <v>3.025424508313506</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>3.454302916242874</v>
+        <v>3.502171728869122</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>15.70083571089498</v>
+        <v>15.65570941715692</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>21.35203997891139</v>
+        <v>21.43079240187578</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>24.66107998133007</v>
+        <v>24.85283211062524</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>1.783279345286271</v>
+        <v>1.61984519475428</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>11.00704281295659</v>
+        <v>10.34641741184907</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>15.2416386376676</v>
+        <v>14.62992611861872</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>8.142876108619802</v>
+        <v>8.13055493888454</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>28.24066057210611</v>
+        <v>26.90711810269953</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>32.14711672579521</v>
+        <v>30.90097871472652</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>30.3002545941582</v>
+        <v>28.56008784179826</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>31.90380734001604</v>
+        <v>30.68636515100235</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>37.94885688020763</v>
+        <v>36.19468580847241</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>15.93397665190598</v>
+        <v>17.29321325843961</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>27.41365009083524</v>
+        <v>25.60777856846475</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.85525407307036</v>
+        <v>28.4467405594746</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>20.75810601322001</v>
+        <v>19.61179209001829</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>29.89787033912596</v>
+        <v>29.1141100724357</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>37.01484160024967</v>
+        <v>35.24394477658016</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>4.339923015553026</v>
+        <v>4.538404691563382</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>22.14820292156945</v>
+        <v>21.18279066841563</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>27.64557865113687</v>
+        <v>26.74985471934832</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>13.02881019591609</v>
+        <v>12.46277546738041</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>42.92890014117449</v>
+        <v>40.90835747251155</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>48.1440636281873</v>
+        <v>47.01121742046685</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>40.4456288493911</v>
+        <v>37.27996639189331</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>46.23330780728845</v>
+        <v>43.03285990167576</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>49.18092262696478</v>
+        <v>45.78932748348777</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>28.47259307690418</v>
+        <v>27.36194415070672</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>49.26184098101557</v>
+        <v>47.01035064538772</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>57.37809846539128</v>
+        <v>55.91503735149547</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>11.49177852034936</v>
+        <v>11.01254690316718</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>23.58657323746873</v>
+        <v>23.04227287616917</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>29.69652102208673</v>
+        <v>29.69781785209408</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-1.544379747820187</v>
+        <v>-1.093593931966343</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>8.42735574054025</v>
+        <v>7.647601993368347</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>14.71463067968059</v>
+        <v>13.42088947628582</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>3.023185821891811</v>
+        <v>2.886433536072243</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>24.6090547483609</v>
+        <v>22.86478475622934</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>35.87840683080338</v>
+        <v>33.05013004757793</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>27.2502837491311</v>
+        <v>25.61759271899522</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>34.20864144340726</v>
+        <v>32.16419971698986</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>40.2296300882106</v>
+        <v>38.61225277836348</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>14.8967641420184</v>
+        <v>13.46963657751248</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>36.2656625216231</v>
+        <v>33.2643867217</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>42.53657915560876</v>
+        <v>40.27755737848121</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>21.72306374132241</v>
+        <v>20.35785791526696</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>35.97255126529177</v>
+        <v>34.62536863558718</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>45.84687891004504</v>
+        <v>44.70790045579609</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>2.807909990867692</v>
+        <v>2.532219826823123</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>22.5357411146462</v>
+        <v>20.18565717856019</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>27.84795278481295</v>
+        <v>25.96557670931894</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>10.85477504238696</v>
+        <v>9.78603029460675</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>45.61640997698868</v>
+        <v>42.87884592989511</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>58.67401770414166</v>
+        <v>55.22901769208525</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>56.2560647361616</v>
+        <v>52.39053287044747</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>64.23441065267505</v>
+        <v>60.63712560675822</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>67.72598510388565</v>
+        <v>64.07126940153246</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>21.65315047475351</v>
+        <v>20.9772625054275</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>53.83681015859826</v>
+        <v>49.29247152805654</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>62.92234405068545</v>
+        <v>58.87749878891874</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>13.92823824534786</v>
+        <v>14.8224569468903</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>32.35391139160537</v>
+        <v>31.65877284207339</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>39.57224641148289</v>
+        <v>38.25849823318056</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>6.082352350590803</v>
+        <v>6.515378711018879</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>33.89455623909249</v>
+        <v>33.36643272496588</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>38.19505243389376</v>
+        <v>37.2619750506897</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>11.4384404504257</v>
+        <v>11.97316669114224</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>57.43902435275115</v>
+        <v>56.68359422139431</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>61.40956989516773</v>
+        <v>60.57046311102471</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>59.14216699802737</v>
+        <v>57.47416617880804</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>65.8791782738756</v>
+        <v>63.195444601829</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>65.75086848107878</v>
+        <v>62.73274691360218</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>14.29991504856931</v>
+        <v>14.95197110993344</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>40.89594016555645</v>
+        <v>39.70645019529809</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>49.62831095418056</v>
+        <v>48.33734192327699</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>9.841674787004976</v>
+        <v>10.15860813696395</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>30.1193084360292</v>
+        <v>29.40762426529297</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>35.57440153247301</v>
+        <v>34.82580496719038</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>3.305895971861474</v>
+        <v>4.398416659527449</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>22.28629491411943</v>
+        <v>21.67791364566954</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>32.92888021870069</v>
+        <v>31.64802229550833</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>4.694057566103488</v>
+        <v>5.621774663528608</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>39.50018347214672</v>
+        <v>38.07402883364698</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>52.50887515592554</v>
+        <v>50.26351976533684</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>43.78541587502739</v>
+        <v>41.4410451990353</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>51.87891505039109</v>
+        <v>49.87985709228765</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>59.76039336247743</v>
+        <v>57.38834861713833</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>7.089445882619493</v>
+        <v>7.072617772639081</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>43.5130328000006</v>
+        <v>41.34076603579757</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>51.23890508960582</v>
+        <v>49.0091817677618</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>9.36224550069047</v>
+        <v>9.602074032817175</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>30.89050585094522</v>
+        <v>30.9046556361174</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>41.57525537583506</v>
+        <v>40.70181337770872</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>-0.683545216235764</v>
+        <v>0.7276493324346269</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>26.01470730692064</v>
+        <v>24.93486115393245</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>36.29237916741832</v>
+        <v>34.99606954792563</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>2.094968832775159</v>
+        <v>3.160350194935042</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>45.69833681233526</v>
+        <v>43.86515517482974</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>65.23550847714341</v>
+        <v>62.94967240825267</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>54.60202774676279</v>
+        <v>51.14783140434027</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>67.77724771224268</v>
+        <v>65.21156789917671</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>80.15730283547515</v>
+        <v>76.83165197215075</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>5.206579122879372</v>
+        <v>5.329680848837921</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>52.91452232808023</v>
+        <v>50.04838384729018</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>64.22663422586695</v>
+        <v>61.18038736955835</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>9.129722502134769</v>
+        <v>9.760648215816829</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>24.97139412842298</v>
+        <v>24.46383186803586</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>35.84245882466229</v>
+        <v>35.758281721766</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>5.430075397802447</v>
+        <v>5.782511411136671</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>42.54189128131248</v>
+        <v>41.23625289623324</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>47.81626014027494</v>
+        <v>48.34494011943923</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>9.434526787617106</v>
+        <v>8.94923251878204</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>62.65935918890967</v>
+        <v>63.78578578677016</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>64.62076966840118</v>
+        <v>66.66405498365997</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>58.07866543751756</v>
+        <v>56.84516421407999</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>59.68359198805331</v>
+        <v>55.58335661611297</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>63.39676524722946</v>
+        <v>60.45151864953164</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>9.391991640298595</v>
+        <v>9.205482562058826</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>33.8708607587394</v>
+        <v>31.50346438128773</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>52.94045938570159</v>
+        <v>55.94170722440688</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>9.761869126809255</v>
+        <v>10.0547159278281</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>31.59807386689192</v>
+        <v>30.58596249353198</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>37.61928573045507</v>
+        <v>37.17681652292275</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>0.8322846515739108</v>
+        <v>2.237366189731613</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>24.96183884596063</v>
+        <v>24.22539700472189</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>33.88209725249809</v>
+        <v>33.3064011928213</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>-0.1180592524030111</v>
+        <v>0.4222698021080689</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>43.83094207036565</v>
+        <v>44.04655076022522</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>54.12370263392921</v>
+        <v>51.76947583329131</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>42.93376908203939</v>
+        <v>40.41503441867806</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>53.62939438018181</v>
+        <v>51.5398159681053</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>61.23672305746808</v>
+        <v>58.24121406168503</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>6.406784760925611</v>
+        <v>6.60380080172391</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>45.46845827701775</v>
+        <v>42.7476480427494</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>54.38399902092597</v>
+        <v>51.98389335993366</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>11.02026081503025</v>
+        <v>11.80128279069136</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>34.1335858197595</v>
+        <v>33.17962022317773</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>42.54278862437496</v>
+        <v>42.51101768408328</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>0.7195625406605153</v>
+        <v>2.202714724157911</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>32.15029716869655</v>
+        <v>30.51266865602851</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>40.53910073698811</v>
+        <v>39.96337725580762</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>1.913051180450935</v>
+        <v>2.49568075471975</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>53.5902501788149</v>
+        <v>51.39377227106917</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>65.67480914114432</v>
+        <v>64.1047592457447</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>64.41904969029621</v>
+        <v>60.49069971697112</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>76.25005831398485</v>
+        <v>72.48962942894443</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>80.81827966139423</v>
+        <v>77.77553752570535</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>8.091353311917707</v>
+        <v>8.075219393979655</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>58.54595858064101</v>
+        <v>53.89731384646289</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>69.75899259471078</v>
+        <v>66.14204785995369</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>18.30048791211859</v>
+        <v>18.87441480797647</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>27.32010456803611</v>
+        <v>25.47943044462708</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>37.33106482550027</v>
+        <v>36.6920385204715</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>14.03171326440752</v>
+        <v>13.8162651880603</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>50.04235035501766</v>
+        <v>51.14816055305251</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>53.47859749665548</v>
+        <v>53.59520281974396</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>15.0569590626962</v>
+        <v>15.39598035404827</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>63.00055406578331</v>
+        <v>61.77209926768543</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>63.7464213711642</v>
+        <v>65.15425935564764</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>52.69278867081926</v>
+        <v>53.38036210225465</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>56.58509374836864</v>
+        <v>55.48288193672529</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>57.8654243290989</v>
+        <v>56.47003856399008</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>18.85165876624708</v>
+        <v>17.34100318604732</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>33.58334145767412</v>
+        <v>31.64992494063732</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>52.36219587812845</v>
+        <v>50.88326845711521</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>22.82648718852294</v>
+        <v>22.74050707153733</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>35.25587869321807</v>
+        <v>33.71746523544167</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>40.22528633687903</v>
+        <v>39.86924482398384</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>34.61282579864863</v>
+        <v>34.35388075366669</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>49.36765146683895</v>
+        <v>47.8447383411078</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>57.06674177442681</v>
+        <v>55.80571472552039</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>11.4886565672396</v>
+        <v>10.5431364002954</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>47.84830372560046</v>
+        <v>45.38122799174849</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>57.91011366130471</v>
+        <v>55.21273338796899</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>45.67172101058687</v>
+        <v>42.89144423312181</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>55.3263901049373</v>
+        <v>53.42635100365442</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>58.59736606409198</v>
+        <v>55.80956704268533</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>22.87248892855477</v>
+        <v>23.12671451978714</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>47.73406236755959</v>
+        <v>45.80857566805338</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>55.23255338264491</v>
+        <v>53.00276103873948</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>22.82476906894119</v>
+        <v>22.20743466403044</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>37.64411720603265</v>
+        <v>36.97883725818218</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>42.02734769085573</v>
+        <v>41.65339867248122</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>35.74059540957223</v>
+        <v>35.40789482248476</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>55.72469208249205</v>
+        <v>53.18612869989516</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>60.57449032798458</v>
+        <v>59.41837608690169</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>15.66187157034674</v>
+        <v>13.00983137294699</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>60.06293419770259</v>
+        <v>57.31754188669032</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>67.41902055011991</v>
+        <v>65.30141465700459</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>68.13415927599218</v>
+        <v>63.64691472330703</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>76.43049901120858</v>
+        <v>73.19568846925692</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>82.08665715350239</v>
+        <v>79.28746626286691</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>25.28543626995518</v>
+        <v>24.05240982904458</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>58.31822875366759</v>
+        <v>58.05516165925528</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>72.26251276429001</v>
+        <v>68.42720222822456</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>8.388356687942093</v>
+        <v>8.772729866034322</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>25.96702252063102</v>
+        <v>25.0747039501202</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>35.42886329877607</v>
+        <v>35.11321896594752</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>2.61460558254603</v>
+        <v>2.892321787028472</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>25.88991044088319</v>
+        <v>24.18066394017307</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>30.24588513760505</v>
+        <v>28.88828638147914</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>8.379976981199071</v>
+        <v>8.119466730861795</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>51.06799177082078</v>
+        <v>49.0818438892141</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>55.05171499161746</v>
+        <v>53.35610443864365</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>57.15054564283004</v>
+        <v>53.80437738521768</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>57.62350297356653</v>
+        <v>53.86403256692326</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>60.87545621707015</v>
+        <v>56.94660013826125</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>7.255843926830394</v>
+        <v>7.653516627503908</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>38.99352288500269</v>
+        <v>37.42405599902388</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>43.76593317028334</v>
+        <v>41.59792851587351</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>8.789203408517466</v>
+        <v>8.989228762459003</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>30.26889967061345</v>
+        <v>29.28547188287084</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>35.32303067361006</v>
+        <v>34.72024602714903</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>1.966946295826645</v>
+        <v>2.186849198022472</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>23.53631107694192</v>
+        <v>22.00137143073403</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>30.42509893589586</v>
+        <v>28.70825266093253</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>2.531776445846013</v>
+        <v>2.599333144572007</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>38.01517232576296</v>
+        <v>35.92000892725858</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>51.99139877198743</v>
+        <v>49.12022502502029</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>41.11829892638547</v>
+        <v>38.68878931444217</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>50.85427162311086</v>
+        <v>48.3643741667146</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>58.08320672377815</v>
+        <v>55.12398889200909</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>4.490990080568871</v>
+        <v>4.727055310759564</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>40.58824209396683</v>
+        <v>37.34945402246804</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>49.14283590950458</v>
+        <v>46.51573455742182</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>9.767664662568784</v>
+        <v>9.496089136423656</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>31.56026457916253</v>
+        <v>30.87591420373319</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>41.91103837435899</v>
+        <v>41.11296546443616</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>0.528300323161627</v>
+        <v>0.5771153735110381</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>26.27072877787556</v>
+        <v>23.7336981355694</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>34.78266646217173</v>
+        <v>32.56834095551172</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>2.65816372732596</v>
+        <v>2.500320066389708</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>44.45096211778302</v>
+        <v>41.23006980353087</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>63.88254896803111</v>
+        <v>61.11389496803183</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>55.99666600808867</v>
+        <v>52.15621823205399</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>69.93476258862475</v>
+        <v>66.62272387158262</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>79.96175074595159</v>
+        <v>75.88817780202918</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>5.220983634022822</v>
+        <v>4.943919484217872</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>55.08652964347091</v>
+        <v>51.21903317609835</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>67.32374485842814</v>
+        <v>63.03094968237716</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>9.86436089946779</v>
+        <v>10.12959673108076</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>12.07305488413859</v>
+        <v>12.44173956440888</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>16.60811100845903</v>
+        <v>16.91781671261522</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>-0.2522157701312508</v>
+        <v>-0.2131556837962911</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>12.91506827469533</v>
+        <v>13.57353161252806</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>14.76882693317462</v>
+        <v>15.51445666981578</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>8.574130482646247</v>
+        <v>8.764550996570435</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>25.94424140014753</v>
+        <v>25.36384703404425</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>27.9351455206299</v>
+        <v>27.55017949795237</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>22.66699202764262</v>
+        <v>21.27795140922428</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>26.21209838076572</v>
+        <v>24.76096575708745</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.00442158689697</v>
+        <v>27.42691599965486</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>10.8508390548965</v>
+        <v>11.19487690407484</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>16.77563328323458</v>
+        <v>16.55791161358702</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>21.68522012725196</v>
+        <v>22.14849476085921</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>8.191144659121814</v>
+        <v>8.418736074317415</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>20.40977465143681</v>
+        <v>20.47183779642688</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.22580952711983</v>
+        <v>28.77089341858987</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>1.944652706128799</v>
+        <v>2.469390345566843</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>12.50157450563693</v>
+        <v>12.25326261641638</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>25.27429104045259</v>
+        <v>24.36102252996264</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>3.857750779780481</v>
+        <v>3.82541027633313</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>22.45052290042995</v>
+        <v>21.56164075959819</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>42.76461707317029</v>
+        <v>40.18458494159902</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>25.85817261583409</v>
+        <v>25.05198524097767</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>36.73980220403054</v>
+        <v>35.41357784163309</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>49.55986674670984</v>
+        <v>47.96567510699018</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>5.558296579117425</v>
+        <v>5.456531816782661</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>29.8128032664919</v>
+        <v>27.66327761894305</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>42.03421762838776</v>
+        <v>39.65006292989737</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>14.52547056850377</v>
+        <v>13.42761624989696</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>28.1359001633884</v>
+        <v>27.09537412095374</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>38.59029222225443</v>
+        <v>36.73197686885513</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>2.650164265148128</v>
+        <v>2.411721779960001</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>20.18511829149833</v>
+        <v>18.4526592426504</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>32.25833280604976</v>
+        <v>30.68548402906779</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>7.10007579495921</v>
+        <v>6.102544302482105</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>34.93010723656266</v>
+        <v>32.52750814512643</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>54.97699181172472</v>
+        <v>51.86083561557886</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>43.89905980882997</v>
+        <v>40.25557092797631</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>52.60482776849793</v>
+        <v>49.44660748093303</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>64.79151043984115</v>
+        <v>60.43822377943083</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>6.94753881970377</v>
+        <v>4.805699695154409</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>39.6653126797399</v>
+        <v>34.31606888467054</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>58.72217668442353</v>
+        <v>54.76167193735847</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>14.78814277697839</v>
+        <v>14.49680005353742</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>20.71049409808291</v>
+        <v>19.67379859135137</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>25.8956058213966</v>
+        <v>23.49291802381606</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>1.275434845497045</v>
+        <v>2.508611314629675</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>25.84351101655564</v>
+        <v>25.5500784341798</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>29.15597725903866</v>
+        <v>26.99265527071598</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>10.94501454156541</v>
+        <v>12.20037088021065</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>45.50390672583102</v>
+        <v>41.69998991419654</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>46.83448411193709</v>
+        <v>44.21202330006858</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>33.54071388519091</v>
+        <v>30.46129146601981</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>38.40886744040496</v>
+        <v>34.52881404495311</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>42.1416189865305</v>
+        <v>38.19873067371674</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>14.3124376365178</v>
+        <v>14.27910844756778</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>32.3238567786623</v>
+        <v>32.17665221632813</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>43.24765635166327</v>
+        <v>40.33103880052733</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>10.06456774726382</v>
+        <v>10.13741656982141</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>23.27146883869172</v>
+        <v>23.17896350583692</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>32.40960417944588</v>
+        <v>32.63191503940911</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>4.421672300153244</v>
+        <v>4.187545051869087</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>17.53091669616144</v>
+        <v>16.90566147418911</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>35.29668851862124</v>
+        <v>33.85083748907442</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>0.7808057570104481</v>
+        <v>1.495372142113517</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>29.62405968397976</v>
+        <v>28.19774712060386</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>46.01136623769318</v>
+        <v>43.01423336917843</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>27.20672103177807</v>
+        <v>25.46170575398983</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>39.28233779609081</v>
+        <v>38.15154582771471</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>52.5880425130288</v>
+        <v>52.45312954733505</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>6.570767302997474</v>
+        <v>6.467978992010508</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>33.74799767000834</v>
+        <v>32.07569811516277</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>42.82275825502272</v>
+        <v>41.15759013742954</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>11.68507152857805</v>
+        <v>12.00033764121246</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>24.87448751252148</v>
+        <v>25.48411282600775</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>31.87145530659527</v>
+        <v>31.96426895012666</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>2.717701504695807</v>
+        <v>2.10814302617889</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>21.01660533028404</v>
+        <v>19.12089525212689</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>31.79577784247143</v>
+        <v>30.54210040048064</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>3.82533925018679</v>
+        <v>4.544755109656215</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>38.66229189860854</v>
+        <v>36.25999778426335</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>51.31248601910605</v>
+        <v>48.80746983296169</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>45.10487529160756</v>
+        <v>41.55944107966084</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>54.43007614108446</v>
+        <v>50.71674432431706</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>66.06581306238706</v>
+        <v>63.92989909921469</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>6.516418063096303</v>
+        <v>5.783244529572769</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>33.81955396388736</v>
+        <v>30.15524546379925</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>54.12220867524212</v>
+        <v>49.37894242052781</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>16.33542885254263</v>
+        <v>17.41412704406012</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>27.44657312842806</v>
+        <v>27.59352667651054</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>36.23191384974724</v>
+        <v>35.60879988376455</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>5.032337224820864</v>
+        <v>5.993602659188955</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>40.93814142820231</v>
+        <v>40.52111203400762</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>46.90052019127628</v>
+        <v>46.22337334088508</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>13.71526953516241</v>
+        <v>13.70242264092191</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>65.45926003118873</v>
+        <v>64.36616675220807</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>65.21462053817201</v>
+        <v>64.46531920695189</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>61.62094033188363</v>
+        <v>56.93603476762922</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>60.26025195930688</v>
+        <v>56.0644129527729</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>65.62305187870311</v>
+        <v>61.78706234670372</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>14.51133342748247</v>
+        <v>16.55387799275299</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>23.43347729520255</v>
+        <v>21.89335051267757</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>60.97502200593862</v>
+        <v>64.64158329201982</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>21.6618903448375</v>
+        <v>21.44592925997786</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>36.21840062042652</v>
+        <v>35.09528965181175</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>39.39334600403364</v>
+        <v>38.78093912489079</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>5.619488398266693</v>
+        <v>5.763010437596293</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>29.12119936093554</v>
+        <v>28.22126222209777</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>37.02635952626089</v>
+        <v>35.73754868489983</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>9.388806596627642</v>
+        <v>9.096431849599941</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>48.40220153688787</v>
+        <v>46.47220538905109</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>58.02627086514376</v>
+        <v>55.31714423192231</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>49.27364686647818</v>
+        <v>46.55957353208368</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>56.01751364897619</v>
+        <v>53.25974599386109</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>62.58908002775267</v>
+        <v>60.08657939140103</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>19.87975195993486</v>
+        <v>19.79500480637483</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>47.70986927559056</v>
+        <v>45.39246069856169</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>55.6773337121503</v>
+        <v>53.85248390100284</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>22.12252979076663</v>
+        <v>21.76996278893786</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>37.46274932609843</v>
+        <v>36.75731133316826</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>42.54938906604466</v>
+        <v>41.8489520183596</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>4.346285738790577</v>
+        <v>4.528862095077361</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>32.80243871789478</v>
+        <v>31.08348629246482</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>40.24148988615766</v>
+        <v>38.25594974148378</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>10.43464808847534</v>
+        <v>10.28993342768716</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>57.4895885693815</v>
+        <v>54.74306911735725</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>68.95560510753938</v>
+        <v>66.2446344247868</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>64.99321253532302</v>
+        <v>61.21835045552015</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>71.5198670904104</v>
+        <v>68.34123923228245</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>78.15698336687822</v>
+        <v>75.77743083694153</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>16.17061081842481</v>
+        <v>16.75654326854167</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>56.48838168867906</v>
+        <v>53.93941134784194</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>66.71201857612991</v>
+        <v>64.16537751399582</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>7.44133275658438</v>
+        <v>7.527948296205938</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>24.03630318810694</v>
+        <v>22.87038312374898</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>32.1912009123426</v>
+        <v>31.64538434478909</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>2.269118584070839</v>
+        <v>2.060472543685208</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>28.06005446993314</v>
+        <v>26.3386360021891</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>30.29232040128856</v>
+        <v>28.7017928854958</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>7.644286042618972</v>
+        <v>6.974071654529105</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>48.36629582878396</v>
+        <v>45.57826469209218</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>53.07413570925655</v>
+        <v>51.04086030265817</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>52.86011191046862</v>
+        <v>48.95161989517582</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>58.80747405323375</v>
+        <v>54.92771177367973</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>56.27966038817665</v>
+        <v>52.0323370666971</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>6.375396041162332</v>
+        <v>6.656603851165244</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>37.0383424211584</v>
+        <v>34.87190687139162</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>39.5638547028145</v>
+        <v>37.4927847759029</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>9.847424152648326</v>
+        <v>10.22029885661692</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>31.12472134313424</v>
+        <v>30.18437252768762</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>35.03040957352249</v>
+        <v>34.29164206123954</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>4.04183415104481</v>
+        <v>4.025593391631251</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>25.73629683291266</v>
+        <v>24.08573885788588</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>33.69039870391521</v>
+        <v>31.86740656236037</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>7.397242046245097</v>
+        <v>7.193659042884903</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>42.38985990074933</v>
+        <v>40.12346221091385</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>57.45314170823386</v>
+        <v>54.4629273520747</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>44.74766649774669</v>
+        <v>41.96011051154014</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>55.7804854863802</v>
+        <v>53.08997943241422</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>61.99048245984397</v>
+        <v>59.08724080735554</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>7.035008729183943</v>
+        <v>6.835141243959647</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>47.07027316599635</v>
+        <v>44.34318284930345</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>51.61793470621348</v>
+        <v>49.11581402033879</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>10.88690897447597</v>
+        <v>10.32607787315919</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>30.61201112376838</v>
+        <v>29.82613064384559</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>40.00519179787147</v>
+        <v>39.21249399945005</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>1.091234275713351</v>
+        <v>1.171104533089501</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>24.6976340052566</v>
+        <v>22.4367800782609</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>34.17065282792397</v>
+        <v>32.07062279678348</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>4.68064453735818</v>
+        <v>4.382265750282645</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>41.00359202019695</v>
+        <v>37.54018762076006</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>61.69577629244566</v>
+        <v>58.91731278526527</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>56.47848693197879</v>
+        <v>52.34741233045421</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>67.25278006556971</v>
+        <v>64.17423671301475</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>78.01441377509758</v>
+        <v>74.00084197052897</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>4.961675380253688</v>
+        <v>4.656017380767135</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>48.05695321127966</v>
+        <v>44.06897462364725</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>62.5376969164082</v>
+        <v>58.75693087021823</v>
       </c>
     </row>
   </sheetData>
